--- a/CSE 6748.xlsx
+++ b/CSE 6748.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GudiduriSS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GudiduriSS\Downloads\CSE-6748\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B9EC76B-7C7A-4766-8004-390D9B864581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA0CAA-9600-4BB2-8D2C-AFA51E081F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{653EF389-223F-42B2-8037-728996DFD03D}"/>
   </bookViews>
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,11 +182,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -199,6 +210,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +531,7 @@
   <dimension ref="A2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,7 +568,7 @@
       <c r="B4" s="2">
         <v>44968</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -564,7 +579,7 @@
       <c r="B5" s="2">
         <v>44975</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -573,9 +588,7 @@
       <c r="B6" s="2">
         <v>44982</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -584,7 +597,9 @@
       <c r="B7" s="2">
         <v>44989</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -593,9 +608,7 @@
       <c r="B8" s="2">
         <v>44996</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -604,7 +617,7 @@
       <c r="B9" s="2">
         <v>45003</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
@@ -617,7 +630,7 @@
         <v>45010</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,7 +649,9 @@
       <c r="B12" s="2">
         <v>45024</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -645,9 +660,7 @@
       <c r="B13" s="2">
         <v>45031</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -656,7 +669,9 @@
       <c r="B14" s="2">
         <v>45038</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -684,15 +699,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C4:C5"/>
+  <mergeCells count="5">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>